--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8430" activeTab="1"/>
+    <workbookView windowWidth="20475" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="CKP-T" sheetId="1" r:id="rId1"/>
     <sheet name="CKP-R" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CKP-T'!$A$1:$H$28</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -166,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -202,28 +205,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,17 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,21 +251,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="0"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +286,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -298,9 +309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,24 +326,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="0"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -359,25 +362,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,157 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +617,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,20 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +688,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -682,32 +706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,13 +719,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,52 +735,52 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -1224,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1486,7 +1489,7 @@
     <mergeCell ref="B9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="1" scale="75" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1496,7 +1499,7 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1850,7 +1853,7 @@
     <mergeCell ref="B9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="1" scale="73" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>